--- a/case_studies/May 2018/MS_results_all.xlsx
+++ b/case_studies/May 2018/MS_results_all.xlsx
@@ -12,7 +12,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>MS BR PCA 3 days</t>
+  </si>
+  <si>
+    <t>MS BR PCA 5 days</t>
+  </si>
+  <si>
+    <t>MS MT PCA 5 days</t>
+  </si>
+  <si>
+    <t>MS BR D-PCA 5 days</t>
+  </si>
+  <si>
+    <t>MS MT D-PCA 5 days</t>
+  </si>
+  <si>
+    <t>MS BR AD-PCA 5 days</t>
+  </si>
+  <si>
+    <t>MS MT AD-PCA 5 days</t>
+  </si>
   <si>
     <t>MS BR PCA 7 days</t>
   </si>
@@ -119,268 +140,289 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6077186126038104</v>
+        <v>0.8401442307692307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6019900497512438</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5935515388373229</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.7390243902439024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5412799218368344</v>
+        <v>0.6570048309178744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.18407960199004975</v>
+        <v>0.7211382113821139</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6077186126038104</v>
+        <v>0.5169082125603864</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6019900497512438</v>
+        <v>0.6087383406971035</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5935515388373229</v>
+        <v>0.5990338164251208</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.5945017182130584</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5412799218368344</v>
+        <v>0.6328502415458938</v>
       </c>
       <c r="M2" t="n">
-        <v>0.18407960199004975</v>
+        <v>0.5537555228276878</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1932367149758454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06658878504672897</v>
+        <v>0.08542482155192263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14863731656184487</v>
+        <v>0.052473512972386754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06921728971962617</v>
+        <v>0.13617985787797107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15772187281621244</v>
+        <v>0.07633269375156419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06419392523364487</v>
+        <v>0.16356285224209752</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08134171907756814</v>
+        <v>0.08150496371068658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06658878504672897</v>
+        <v>0.11253369272237197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.14863731656184487</v>
+        <v>0.06678342089900759</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06921728971962617</v>
+        <v>0.14848993288590603</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15772187281621244</v>
+        <v>0.06941039112667834</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06419392523364487</v>
+        <v>0.15750838926174496</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08134171907756814</v>
+        <v>0.06298890834792761</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08116610738255034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39228138739618956</v>
+        <v>0.15985576923076922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.39800995024875624</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4064484611626771</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3681592039800995</v>
+        <v>0.26097560975609757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4587200781631656</v>
+        <v>0.34299516908212563</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8159203980099502</v>
+        <v>0.2788617886178862</v>
       </c>
       <c r="H4" t="n">
-        <v>0.39228138739618956</v>
+        <v>0.4830917874396135</v>
       </c>
       <c r="I4" t="n">
-        <v>0.39800995024875624</v>
+        <v>0.3912616593028964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4064484611626771</v>
+        <v>0.40096618357487923</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3681592039800995</v>
+        <v>0.4054982817869416</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4587200781631656</v>
+        <v>0.3671497584541063</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8159203980099502</v>
+        <v>0.44624447717231225</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8067632850241546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7151929653150952</v>
+        <v>0.42788461538461536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3681592039800995</v>
+        <v>0.42357723577235773</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20029311187103077</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.26865671641791045</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09526135808500244</v>
+        <v>0.25120772946859904</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18407960199004975</v>
+        <v>0.06991869918699187</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7151929653150952</v>
+        <v>0.024154589371980676</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3681592039800995</v>
+        <v>0.7295041728031418</v>
       </c>
       <c r="J5" t="n">
-        <v>0.20029311187103077</v>
+        <v>0.3719806763285024</v>
       </c>
       <c r="K5" t="n">
-        <v>0.26865671641791045</v>
+        <v>0.20962199312714777</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09526135808500244</v>
+        <v>0.28502415458937197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.18407960199004975</v>
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2028985507246377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1816588785046729</v>
+        <v>0.0835827768823394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1280922431865828</v>
+        <v>0.11662634520730791</v>
       </c>
       <c r="D6" t="n">
-        <v>0.025817757009345795</v>
+        <v>0.10267091399166871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08134171907756814</v>
+        <v>0.012847251188787854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.014485981308411215</v>
+        <v>0.07032590051457976</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04640111809923131</v>
+        <v>0.007508133811629265</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1816588785046729</v>
+        <v>0.0028791962754226904</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1280922431865828</v>
+        <v>0.18026853473438412</v>
       </c>
       <c r="J6" t="n">
-        <v>0.025817757009345795</v>
+        <v>0.12793624161073824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08134171907756814</v>
+        <v>0.024810274372446</v>
       </c>
       <c r="L6" t="n">
-        <v>0.014485981308411215</v>
+        <v>0.08102628635346756</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04640111809923131</v>
+        <v>0.014535901926444834</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04607102908277405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.28480703468490476</v>
+        <v>0.5721153846153846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.5764227642276423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7997068881289692</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.9560975609756097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9047386419149975</v>
+        <v>0.748792270531401</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8159203980099502</v>
+        <v>0.9300813008130081</v>
       </c>
       <c r="H7" t="n">
-        <v>0.28480703468490476</v>
+        <v>0.9758454106280193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6318407960199005</v>
+        <v>0.2704958271968581</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7997068881289692</v>
+        <v>0.6280193236714976</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.7903780068728522</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9047386419149975</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8159203980099502</v>
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7971014492753623</v>
       </c>
     </row>
   </sheetData>
